--- a/WholeStack/工作计划.xlsx
+++ b/WholeStack/工作计划.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CC8A79-DF3B-4704-9B81-A7A7ABCBA121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF36FF-09B8-44F7-B8AB-E7E926FAB628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实际" sheetId="1" r:id="rId1"/>
     <sheet name="计划" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,154 @@
   </si>
   <si>
     <t>首屏加载loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt思路模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt数据制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20夏预估ppt制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20夏预估ppt完结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件下载修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf加载loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt预估讲解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt预估完美版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来15天下载/排班沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售还原思维图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20夏预估ppt最终版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售还原思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡排班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售还原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排班人工调整/失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原数据导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站插件数据更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午还原思路讲解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt讲解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售还原讲解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重法数据/思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重法计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重法/Bass法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bass预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重法预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -163,11 +311,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -182,7 +362,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -194,13 +374,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -209,13 +404,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -230,24 +440,33 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -257,115 +476,76 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -646,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC7"/>
+  <dimension ref="B1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,107 +839,107 @@
   <sheetData>
     <row r="1" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="2">
         <v>9</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>11</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>1</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="9">
         <v>2</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="9">
         <v>3</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="9">
         <v>4</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="9">
         <v>5</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="9">
         <v>6</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="10">
         <v>7</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="10">
         <v>8</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="10">
         <v>9</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="10">
         <v>10</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="10">
         <v>11</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="10">
         <v>12</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>1</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="2">
         <v>2</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="2">
         <v>3</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="2">
         <v>4</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="2">
         <v>5</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="2">
         <v>6</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="2">
         <v>7</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20">
-        <v>7.1</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="B3" s="4"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="23">
+        <v>43647</v>
+      </c>
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1"/>
@@ -768,40 +948,40 @@
         <v>4</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="6"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="7"/>
+      <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20">
-        <v>7.2</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="C4" s="13"/>
+      <c r="D4" s="23">
+        <v>43648</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1"/>
@@ -812,135 +992,355 @@
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="7"/>
+      <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20">
-        <v>7.3</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="23">
+        <v>43649</v>
+      </c>
+      <c r="E5" s="13">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="6"/>
+      <c r="N5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="6"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="D6" s="23">
+        <v>43650</v>
+      </c>
+      <c r="E6" s="13">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="6"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="6"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22">
-        <v>7.5</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="26">
+        <v>43651</v>
+      </c>
+      <c r="E7" s="16">
         <v>5</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="10"/>
+      <c r="F7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="18"/>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="25">
+        <v>43654</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="22"/>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="30">
+        <v>43655</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B10" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="30">
+        <v>43656</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30">
+        <v>43657</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="31">
+        <v>43658</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -950,117 +1350,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0CF004-64CF-47EA-A97E-D0D23A6F2FE7}">
-  <dimension ref="B1:AC7"/>
+  <dimension ref="B1:AC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="22.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="2">
         <v>9</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>11</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="9">
         <v>1</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="9">
         <v>2</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="9">
         <v>3</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="9">
         <v>4</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="9">
         <v>5</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="9">
         <v>6</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="10">
         <v>7</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="10">
         <v>8</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="10">
         <v>9</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="10">
         <v>10</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="10">
         <v>11</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="10">
         <v>12</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>1</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="2">
         <v>2</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="2">
         <v>3</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="2">
         <v>4</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="2">
         <v>5</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="2">
         <v>6</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="2">
         <v>7</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20">
-        <v>7.1</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="B3" s="4"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="23">
+        <v>43647</v>
+      </c>
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1"/>
@@ -1069,40 +1472,40 @@
         <v>4</v>
       </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="6"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="7"/>
+      <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20">
-        <v>7.2</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="C4" s="13"/>
+      <c r="D4" s="23">
+        <v>43648</v>
+      </c>
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1"/>
@@ -1113,131 +1516,327 @@
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="6"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="6"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="7"/>
+      <c r="AC4" s="5"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20">
-        <v>7.3</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="23">
+        <v>43649</v>
+      </c>
+      <c r="E5" s="13">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="6"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="6"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="7"/>
+      <c r="AC5" s="5"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="D6" s="23">
+        <v>43650</v>
+      </c>
+      <c r="E6" s="13">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="6"/>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="6"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="5"/>
     </row>
     <row r="7" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22">
-        <v>7.5</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="26">
+        <v>43651</v>
+      </c>
+      <c r="E7" s="16">
         <v>5</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="10"/>
+      <c r="F7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="18"/>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B8" s="19"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28">
+        <v>43654</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="22"/>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="23">
+        <v>43655</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="23">
+        <v>43656</v>
+      </c>
+      <c r="E10" s="13">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="23">
+        <v>43657</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="24">
+        <v>43658</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WholeStack/工作计划.xlsx
+++ b/WholeStack/工作计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBF36FF-09B8-44F7-B8AB-E7E926FAB628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA7FC1-7D77-448E-8EB5-58A9F0C1FAC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实际" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,46 @@
   </si>
   <si>
     <t>权重法预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日权重计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bass模型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售还原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节假日方法模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt增加页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节假日和Bass模型模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -516,9 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -927,7 +964,7 @@
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>43647</v>
       </c>
       <c r="E3" s="13">
@@ -969,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>43648</v>
       </c>
       <c r="E4" s="13">
@@ -1023,7 +1060,7 @@
       <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>43649</v>
       </c>
       <c r="E5" s="13">
@@ -1069,7 +1106,7 @@
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>43650</v>
       </c>
       <c r="E6" s="13">
@@ -1113,7 +1150,7 @@
     <row r="7" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>43651</v>
       </c>
       <c r="E7" s="16">
@@ -1155,10 +1192,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="20"/>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>43654</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="13">
         <v>1</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -1194,17 +1231,17 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="22"/>
+      <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>43655</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="13">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1243,22 +1280,32 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>43656</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="13">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1281,7 +1328,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="30">
+      <c r="D11" s="29">
         <v>43657</v>
       </c>
       <c r="E11" s="1"/>
@@ -1313,7 +1360,7 @@
     <row r="12" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>43658</v>
       </c>
       <c r="E12" s="7"/>
@@ -1352,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0CF004-64CF-47EA-A97E-D0D23A6F2FE7}">
   <dimension ref="B1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1498,7 @@
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>43647</v>
       </c>
       <c r="E3" s="13">
@@ -1493,7 +1540,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>43648</v>
       </c>
       <c r="E4" s="13">
@@ -1539,7 +1586,7 @@
       <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>43649</v>
       </c>
       <c r="E5" s="13">
@@ -1583,7 +1630,7 @@
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>43650</v>
       </c>
       <c r="E6" s="13">
@@ -1621,7 +1668,7 @@
     <row r="7" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>43651</v>
       </c>
       <c r="E7" s="16">
@@ -1660,14 +1707,14 @@
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27">
         <v>43654</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>1</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="20"/>
@@ -1696,12 +1743,12 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="22"/>
+      <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>43655</v>
       </c>
       <c r="E9" s="13">
@@ -1718,9 +1765,13 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1737,22 +1788,32 @@
       <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>43656</v>
       </c>
       <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1771,9 +1832,11 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>43657</v>
       </c>
       <c r="E11" s="13">
@@ -1805,9 +1868,11 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>43658</v>
       </c>
       <c r="E12" s="14">
